--- a/inventory.xlsx
+++ b/inventory.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trevj\Desktop\cageDayAutomation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@STUFF\WIUX\cageDayAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88B70B2-ECAC-425B-AB7E-F78C2939385B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636304CA-BF33-422C-A5E1-4448A67B3C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{C53648EA-3E93-4329-9228-E2C25FEC1087}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" firstSheet="1" xr2:uid="{C53648EA-3E93-4329-9228-E2C25FEC1087}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Merchandise" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="357">
   <si>
     <t>Name</t>
   </si>
@@ -42,69 +43,1077 @@
     <t>ID</t>
   </si>
   <si>
+    <t>Dept.</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>00101a</t>
-  </si>
-  <si>
-    <t>Outdoor Speaker</t>
-  </si>
-  <si>
-    <t>00202cs</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>This is a mic for the 99.1 station</t>
-  </si>
-  <si>
-    <t>This is a speaker for cultureshock</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
-    <t>https://wiux.org/inventory/?i_id=000121as</t>
-  </si>
-  <si>
-    <t>Sony Microphone</t>
-  </si>
-  <si>
-    <t>https://wiux.org/inventory/?i_id=00202cs</t>
-  </si>
-  <si>
-    <t>00542cs</t>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz</t>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrst</t>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstu</t>
+    <t>Label Type</t>
+  </si>
+  <si>
+    <t>Will Tag?</t>
+  </si>
+  <si>
+    <t>Brand/Model</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 274-017c Microphone Adapter</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>a5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a brown wine box </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RadioShack </t>
+  </si>
+  <si>
+    <t>AA/AAA Battery Charger</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>conp cart</t>
+  </si>
+  <si>
+    <t>Energizer wall mounted battery charger</t>
+  </si>
+  <si>
+    <t>Energizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AS-1100 System </t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>Any Spot Wireless Personal Moniter</t>
+  </si>
+  <si>
+    <t>Galaxy Audio</t>
+  </si>
+  <si>
+    <t>ATI DP100</t>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>Compact disc digital audio playback interface</t>
+  </si>
+  <si>
+    <t>ATI</t>
+  </si>
+  <si>
+    <t>Audio Technica ST95 MKII</t>
+  </si>
+  <si>
+    <t>In pouch</t>
+  </si>
+  <si>
+    <t>Audio Technica</t>
+  </si>
+  <si>
+    <t>Audix F15</t>
+  </si>
+  <si>
+    <t>fusion series, comes with shockmount</t>
+  </si>
+  <si>
+    <t>Audix</t>
+  </si>
+  <si>
+    <t>Barracuda 7200.10</t>
+  </si>
+  <si>
+    <t>comp cart</t>
+  </si>
+  <si>
+    <t>250GB Internal hard drive</t>
+  </si>
+  <si>
+    <t>Seagate</t>
+  </si>
+  <si>
+    <t>6RYBV1AJ</t>
+  </si>
+  <si>
+    <t>Barracuda 7200.12</t>
+  </si>
+  <si>
+    <t>500GB Internal hard drive</t>
+  </si>
+  <si>
+    <t>6VMBYZZX</t>
+  </si>
+  <si>
+    <t>Barracuda 7200.9</t>
+  </si>
+  <si>
+    <t>80GB Internal hard drive</t>
+  </si>
+  <si>
+    <t>4LR20TZ4</t>
+  </si>
+  <si>
+    <t>Belkin Network Switch</t>
+  </si>
+  <si>
+    <t>Dir. Office</t>
+  </si>
+  <si>
+    <t>Vers. 500</t>
+  </si>
+  <si>
+    <t>Belkin</t>
+  </si>
+  <si>
+    <t>F4G0500</t>
+  </si>
+  <si>
+    <t>Clearsonic S2444x2</t>
+  </si>
+  <si>
+    <t>cage</t>
+  </si>
+  <si>
+    <t>Acoustic baffles</t>
+  </si>
+  <si>
+    <t>Clearsonic</t>
+  </si>
+  <si>
+    <t>Dell Keyboard</t>
+  </si>
+  <si>
+    <t>Wired USB Dell Keyboard</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>SK-8115</t>
+  </si>
+  <si>
+    <t>Dell Optiplex 7010</t>
+  </si>
+  <si>
+    <t>Old PC</t>
+  </si>
+  <si>
+    <t>Dell Optiplex 755</t>
+  </si>
+  <si>
+    <t>Old PC (1 no harddrive)</t>
+  </si>
+  <si>
+    <t>Dell Optiplex 780</t>
+  </si>
+  <si>
+    <t>Dell USB Mouse</t>
+  </si>
+  <si>
+    <t>Basic USB mouse</t>
+  </si>
+  <si>
+    <t>J0205UIK</t>
+  </si>
+  <si>
+    <t>Denon Tuner</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>ACD-AMFM Option Board</t>
+  </si>
+  <si>
+    <t>Denon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diamond Xtreme Sound </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Driver Installation CD </t>
+  </si>
+  <si>
+    <t>Diamond</t>
+  </si>
+  <si>
+    <t>ElectroVoice RE20</t>
+  </si>
+  <si>
+    <t>in pouch</t>
+  </si>
+  <si>
+    <t>ElectroVoice</t>
+  </si>
+  <si>
+    <t>Furman M-8x2</t>
+  </si>
+  <si>
+    <t>ops</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>Power conditioner (paired with Crown XLS1000)</t>
+  </si>
+  <si>
+    <t>Furman</t>
+  </si>
+  <si>
+    <t>Head Amp 6 Pro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 channel headphone amp, in SKB case with behringer eurorack pro </t>
+  </si>
+  <si>
+    <t>Applied Research and Technology</t>
+  </si>
+  <si>
+    <t>Hercules DJMonitor42</t>
+  </si>
+  <si>
+    <t>l1</t>
+  </si>
+  <si>
+    <t>Active powered, like 3 in drivers, comes in a pair</t>
+  </si>
+  <si>
+    <t>Hercules</t>
+  </si>
+  <si>
+    <t>HP Office Jet Printer</t>
+  </si>
+  <si>
+    <t>8500A Plus color printer</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>CN08SBM0S9</t>
+  </si>
+  <si>
+    <t>iMac</t>
+  </si>
+  <si>
+    <t>20in? iMac Desktop</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>QP8371SZZE3</t>
+  </si>
+  <si>
+    <t>iMac Monitor</t>
+  </si>
+  <si>
+    <t>Old with 99.1 Sticker</t>
+  </si>
+  <si>
+    <t>KLX500-RX Digital KVM LAN Reciever Unit</t>
+  </si>
+  <si>
+    <t>Smart-AN</t>
+  </si>
+  <si>
+    <t>SMA36000705</t>
+  </si>
+  <si>
+    <t>Linksys Workgroup Switch</t>
+  </si>
+  <si>
+    <t>Model EZXS55W</t>
+  </si>
+  <si>
+    <t>Linksys</t>
+  </si>
+  <si>
+    <t>R9150H910961</t>
+  </si>
+  <si>
+    <t>Logitech Wireless Keyboard</t>
+  </si>
+  <si>
+    <t>Missing battery cover and connector</t>
+  </si>
+  <si>
+    <t>Logitech</t>
+  </si>
+  <si>
+    <t>1417CE02C878</t>
+  </si>
+  <si>
+    <t>Mackie XLR10</t>
+  </si>
+  <si>
+    <t>Mic input expander (possibly for engineering)</t>
+  </si>
+  <si>
+    <t>Mackie</t>
+  </si>
+  <si>
+    <t>C23250</t>
+  </si>
+  <si>
+    <t>MBox2 Pro</t>
+  </si>
+  <si>
+    <t>digidesign</t>
+  </si>
+  <si>
+    <t>AKJ1911000B</t>
+  </si>
+  <si>
+    <t>Mic desk arms</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>2 heil, 1 unbranded</t>
+  </si>
+  <si>
+    <t>Heil</t>
+  </si>
+  <si>
+    <t>Mic Power II PB223</t>
+  </si>
+  <si>
+    <t>Dual phantom power supply</t>
+  </si>
+  <si>
+    <t>Rolls</t>
+  </si>
+  <si>
+    <t>Monitor Mount</t>
+  </si>
+  <si>
+    <t>Ergotron stand for monitors</t>
+  </si>
+  <si>
+    <t>Ergotron</t>
+  </si>
+  <si>
+    <t>Pop shield</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>Raxess</t>
+  </si>
+  <si>
+    <t>Portable USB Hard drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1TB Silicon Power hard drive </t>
+  </si>
+  <si>
+    <t>Silicon Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power strips </t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>Two with 6 outlets, 1 with 12, in a brown box of cables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proco Stagemaster </t>
+  </si>
+  <si>
+    <t>16 send full return stage snake XLR</t>
+  </si>
+  <si>
+    <t>Pro-co</t>
+  </si>
+  <si>
+    <t>SMA1604FBX-100</t>
+  </si>
+  <si>
+    <t>RAV00 Multimedia Speaker</t>
+  </si>
+  <si>
+    <t>In red box</t>
+  </si>
+  <si>
+    <t>Zylux</t>
+  </si>
+  <si>
+    <t>CN-0C730C-71623-88I0766</t>
+  </si>
+  <si>
+    <t>CN-0C730C-71623-9CP-6878</t>
+  </si>
+  <si>
+    <t>RCA Male to SOR Female cable</t>
+  </si>
+  <si>
+    <t>Neutrik</t>
+  </si>
+  <si>
+    <t>RCA Male to XLR Female Converter</t>
+  </si>
+  <si>
+    <t>Samson MK10</t>
+  </si>
+  <si>
+    <t>L2</t>
+  </si>
+  <si>
+    <t>Microphone stand</t>
+  </si>
+  <si>
+    <t>On-Stage Stands</t>
+  </si>
+  <si>
+    <t>Samson Q7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comes in plastic box with wireless reciever </t>
+  </si>
+  <si>
+    <t>Samson</t>
+  </si>
+  <si>
+    <t>ScotchCart cassette</t>
+  </si>
+  <si>
+    <t>Old recorded cassette tape</t>
+  </si>
+  <si>
+    <t>ScotchCart</t>
+  </si>
+  <si>
+    <t>Sennheiser e835</t>
+  </si>
+  <si>
+    <t>Sennheiser</t>
+  </si>
+  <si>
+    <t>Shure SM58</t>
+  </si>
+  <si>
+    <t>In pouch, has 2 mic clips</t>
+  </si>
+  <si>
+    <t>Shure</t>
+  </si>
+  <si>
+    <t>Shure Super55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supercardioid </t>
+  </si>
+  <si>
+    <t>Slim USB Keyboard</t>
+  </si>
+  <si>
+    <t>Wired keyboard in box</t>
+  </si>
+  <si>
+    <t>SP C4 small diapragm condenser</t>
+  </si>
+  <si>
+    <t>adpaters are on mic clips for stereo bar, also has wind filters</t>
+  </si>
+  <si>
+    <t>Sound Projects</t>
+  </si>
+  <si>
+    <t>SPC4 mic capsule replacement</t>
+  </si>
+  <si>
+    <t>2 omni, 1 supercardioid</t>
+  </si>
+  <si>
+    <t>Studio monitors 4406</t>
+  </si>
+  <si>
+    <t>a1</t>
+  </si>
+  <si>
+    <t>With wires</t>
+  </si>
+  <si>
+    <t>JBL</t>
+  </si>
+  <si>
+    <t>Tascam SS-R200</t>
+  </si>
+  <si>
+    <t>Tascam</t>
+  </si>
+  <si>
+    <t>WD Caviar SE</t>
+  </si>
+  <si>
+    <t>250GB Internal hard driver</t>
+  </si>
+  <si>
+    <t>Western Digital</t>
+  </si>
+  <si>
+    <t>WCANK2376853</t>
+  </si>
+  <si>
+    <t>Windows 7 CD</t>
+  </si>
+  <si>
+    <t>Microsoft Windows 7 Ulti. CD Installation</t>
+  </si>
+  <si>
+    <t>Microsoft Licensing</t>
+  </si>
+  <si>
+    <t>Windows 8.1 CD</t>
+  </si>
+  <si>
+    <t>Microsoft Windows 8.1 Pro CD Installation</t>
+  </si>
+  <si>
+    <t>Wireless Printer</t>
+  </si>
+  <si>
+    <t>HL-227ODW Wireless printer</t>
+  </si>
+  <si>
+    <t>Brother</t>
+  </si>
+  <si>
+    <t>U62674F3N180020</t>
+  </si>
+  <si>
+    <t>XLR Cable</t>
+  </si>
+  <si>
+    <t>30ft</t>
+  </si>
+  <si>
+    <t>Kopul</t>
+  </si>
+  <si>
+    <t>Subwoofer Pole</t>
+  </si>
+  <si>
+    <t>Adjustable subwoofer pole</t>
+  </si>
+  <si>
+    <t>JamStand</t>
+  </si>
+  <si>
+    <t>JBL Stand</t>
+  </si>
+  <si>
+    <t>JBL Monitor Stands</t>
+  </si>
+  <si>
+    <t>Microphone Stand</t>
+  </si>
+  <si>
+    <t>Microphone stands</t>
+  </si>
+  <si>
+    <t>ProLine</t>
+  </si>
+  <si>
+    <t>Monitor Stand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyle </t>
+  </si>
+  <si>
+    <t>Computer Cable Box</t>
+  </si>
+  <si>
+    <t>Misc. cables for various computer parts</t>
+  </si>
+  <si>
+    <t>DJ light</t>
+  </si>
+  <si>
+    <t>visual</t>
+  </si>
+  <si>
+    <t>Interchangable slides</t>
+  </si>
+  <si>
+    <t>DJ monitor connect cables</t>
+  </si>
+  <si>
+    <t>DVE Switching adapter</t>
+  </si>
+  <si>
+    <t>outputs 12v, 1amp, center positive</t>
+  </si>
+  <si>
+    <t>DVI Cable</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Female to female XLR cable</t>
+  </si>
+  <si>
+    <t>Furman Signal Processing</t>
+  </si>
+  <si>
+    <t>Large diaphragm condenser mount</t>
+  </si>
+  <si>
+    <t>Large diaphragm condenser shock mount</t>
+  </si>
+  <si>
+    <t>Male to male quarter inch cables</t>
+  </si>
+  <si>
+    <t>Male to male XLB cable</t>
+  </si>
+  <si>
+    <t>Microphone(?)</t>
+  </si>
+  <si>
+    <t>Dynamic mic with quarter inch output (attached)</t>
+  </si>
+  <si>
+    <t>Unnamed, has hardware with it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music/connector filing cabinet </t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Stocked</t>
+  </si>
+  <si>
+    <t>Pop Filter</t>
+  </si>
+  <si>
+    <t>Various, including SM7B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quarter inch male to quarter inch male </t>
+  </si>
+  <si>
+    <t>In a brown box of cables</t>
+  </si>
+  <si>
+    <t>RCA Male to RCA Male</t>
+  </si>
+  <si>
+    <t>Roll up extension cord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bright orange </t>
+  </si>
+  <si>
+    <t>Shure Mic clip</t>
+  </si>
+  <si>
+    <t>Dynamic microphone clip</t>
+  </si>
+  <si>
+    <t>Small diaphragm mic clips</t>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>Labelled samson</t>
+  </si>
+  <si>
+    <t>Snake mic mount</t>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>Stereo mic bar</t>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+  <si>
+    <t>Adapters are on SPC4</t>
+  </si>
+  <si>
+    <t>Studio flash lights</t>
+  </si>
+  <si>
+    <t>a3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thread adapter </t>
+  </si>
+  <si>
+    <t>mic size to mic size</t>
+  </si>
+  <si>
+    <t>TRS into two TRS</t>
+  </si>
+  <si>
+    <t>Cable splitter</t>
+  </si>
+  <si>
+    <t>VGA Cable</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Behringer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Behringer Eurorack Pro </t>
+  </si>
+  <si>
+    <t>a4</t>
+  </si>
+  <si>
+    <t>RX1202FX 12 channel mixer, in SKB case with Head Amp 6 Pro</t>
+  </si>
+  <si>
+    <t>Canon EOS M50</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>15-45mm canon eos lens, come in cases, both have 55-200mm macro telephoto lens, sd card in each pouch, 2 chargers</t>
+  </si>
+  <si>
+    <t>Canon</t>
+  </si>
+  <si>
+    <t>Crown XLS1000</t>
+  </si>
+  <si>
+    <t>Amplifier for Engineering/DJ</t>
+  </si>
+  <si>
+    <t>Crown</t>
+  </si>
+  <si>
+    <t>Dracast S-Series DRSP-500B</t>
+  </si>
+  <si>
+    <t>Lighting for visual content, in the big dracast case</t>
+  </si>
+  <si>
+    <t>Dracast</t>
+  </si>
+  <si>
+    <t>Flip Video Mino HD</t>
+  </si>
+  <si>
+    <t>Flip Video Camera, in red box</t>
+  </si>
+  <si>
+    <t>Cisco</t>
+  </si>
+  <si>
+    <t>Green screen bag</t>
+  </si>
+  <si>
+    <t>2x33" Translucent umbrellas, 4 bulbs, 2 lamp holders, 3 Muslin backdrops, 6 backdrop clamps, 1 backdrop support stand, 4 light stands, 2 soft boxs</t>
+  </si>
+  <si>
+    <t>Neewer</t>
+  </si>
+  <si>
+    <t>Lumix G camera</t>
+  </si>
+  <si>
+    <t>In a Canon bag, with LuxLi light, battery</t>
+  </si>
+  <si>
+    <t>Lumix</t>
+  </si>
+  <si>
+    <t>Magnus VT300 Tripod</t>
+  </si>
+  <si>
+    <t>Has the plate</t>
+  </si>
+  <si>
+    <t>Magnus</t>
+  </si>
+  <si>
+    <t>Magnus VT3000 Tripod</t>
+  </si>
+  <si>
+    <t>Manfrotto tripod</t>
+  </si>
+  <si>
+    <t>Manfrotto</t>
+  </si>
+  <si>
+    <t>Moza Gimbal Stabilizer</t>
+  </si>
+  <si>
+    <t>Kit - "Air"</t>
+  </si>
+  <si>
+    <t>Moza</t>
+  </si>
+  <si>
+    <t>MRX 500</t>
+  </si>
+  <si>
+    <t>Moniters</t>
+  </si>
+  <si>
+    <t>Nikon D3300</t>
+  </si>
+  <si>
+    <t>Nikon</t>
+  </si>
+  <si>
+    <t>PGA Mic kit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mic Kit - PGA </t>
+  </si>
+  <si>
+    <t>Pioneer DJM-250</t>
+  </si>
+  <si>
+    <t>Event DJ, in marathon case</t>
+  </si>
+  <si>
+    <t>Pioneer</t>
+  </si>
+  <si>
+    <t>Presonus Console</t>
+  </si>
+  <si>
+    <t>Presonus Mixer StudioLIve 16.4.2</t>
+  </si>
+  <si>
+    <t>Presonus</t>
+  </si>
+  <si>
+    <t>PRX 800</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>ART</t>
+  </si>
+  <si>
+    <t>Tieline Commander G3</t>
+  </si>
+  <si>
+    <t>Tieline</t>
+  </si>
+  <si>
+    <t>Tieline iMix G3</t>
+  </si>
+  <si>
+    <t>Tie line for remote broadcasting</t>
+  </si>
+  <si>
+    <t>Microphone (USB)</t>
+  </si>
+  <si>
+    <t>Rode NT-USB Mini</t>
+  </si>
+  <si>
+    <t>FS0075471</t>
+  </si>
+  <si>
+    <t>Audio-Technica ATR2100x-USB</t>
+  </si>
+  <si>
+    <t>Blue Snowball Ice</t>
+  </si>
+  <si>
+    <t>2023SG00BZ39</t>
+  </si>
+  <si>
+    <t>2030BAA0BPT9</t>
+  </si>
+  <si>
+    <t>2030BAA0ABZ9</t>
+  </si>
+  <si>
+    <t>2030BAA0ABW9</t>
+  </si>
+  <si>
+    <t>Shirt/Item</t>
+  </si>
+  <si>
+    <t>Size</t>
+  </si>
+  <si>
+    <t>Merch Boxes</t>
+  </si>
+  <si>
+    <t>Storage Loc</t>
+  </si>
+  <si>
+    <t>50 Year Anniversary Shirt (Black)</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>l2</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>2XL</t>
+  </si>
+  <si>
+    <t>Bucket Hat</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Culture Shock 2017 (Red)</t>
+  </si>
+  <si>
+    <t>Culture Shock 2017 (White)</t>
+  </si>
+  <si>
+    <t>Culture Shock 2018 (Beige)</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>Culture Shock 2018 (Blue)</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>Culture Shock 2019 (Blue)</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>Culture Shock 2019 (Pink)</t>
+  </si>
+  <si>
+    <t>Culture Shock 2021 (Black)</t>
+  </si>
+  <si>
+    <t>c4</t>
+  </si>
+  <si>
+    <t>c5</t>
+  </si>
+  <si>
+    <t>Culture Shock 30th Anniversary (White)</t>
+  </si>
+  <si>
+    <t>DJ Shirt 18 - Pure Student Radio (Green)</t>
+  </si>
+  <si>
+    <t>DJ Tees 2019 (Blue)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> c5</t>
+  </si>
+  <si>
+    <t>Fanny Pack</t>
+  </si>
+  <si>
+    <t>Nalgene Water Bottles</t>
+  </si>
+  <si>
+    <t>Pledge Drive Sweatshirt 2018 (Black)</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>Pledge Drive Sweatshirt 2020 (White)</t>
+  </si>
+  <si>
+    <t>Pledge Drive Tee 2020 (Pink)</t>
+  </si>
+  <si>
+    <t>r1, b4</t>
+  </si>
+  <si>
+    <t>Microphone (USB&amp;XLR)</t>
+  </si>
+  <si>
+    <t>D-Office</t>
+  </si>
+  <si>
+    <t>Missing the plate, video tripod</t>
+  </si>
+  <si>
+    <t>Smaller in size</t>
+  </si>
+  <si>
+    <t>Comes with Nikkor AF-S 18-70mm, has battery but no charger</t>
+  </si>
+  <si>
+    <t>Personal USB mic for members</t>
+  </si>
+  <si>
+    <t>S8 Balanced Mic Splitter</t>
+  </si>
+  <si>
+    <t>Has 8 channels</t>
+  </si>
+  <si>
+    <t>2-Way PA speaker</t>
+  </si>
+  <si>
+    <t>Model B212XL, with 12in subwoofer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -126,6 +1135,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -135,7 +1162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -143,26 +1170,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -478,23 +1565,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA3E90BA-0AEC-4687-AAA6-CFD91F754F14}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.28515625" customWidth="1"/>
+    <col min="12" max="12" width="28" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,93 +1595,3988 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>256</v>
+      </c>
+      <c r="B4">
+        <v>112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G4" s="4">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B5">
+        <v>114</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6">
+        <v>122</v>
+      </c>
+      <c r="C6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7">
+        <v>124</v>
+      </c>
+      <c r="C7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G7" s="4">
+        <v>2</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8">
+        <v>126</v>
+      </c>
+      <c r="C8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B9">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" t="s">
+        <v>257</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10">
+        <v>137</v>
+      </c>
+      <c r="C10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11">
+        <v>138</v>
+      </c>
+      <c r="C11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B12">
+        <v>139</v>
+      </c>
+      <c r="C12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B13">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14">
+        <v>145</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B15">
+        <v>146</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" t="s">
+        <v>348</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16">
+        <v>147</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17">
+        <v>148</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18">
+        <v>152</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>296</v>
+      </c>
+      <c r="B19">
+        <v>154</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>353</v>
+      </c>
+      <c r="B20">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>297</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>299</v>
+      </c>
+      <c r="B21">
+        <v>171</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>245</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>300</v>
+      </c>
+      <c r="L21" s="2">
+        <v>21562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>301</v>
+      </c>
+      <c r="B22">
+        <v>172</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>245</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>300</v>
+      </c>
+      <c r="L22" s="2">
+        <v>20839</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>303</v>
+      </c>
+      <c r="B23">
+        <v>208</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>348</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>304</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>347</v>
+      </c>
+      <c r="B24">
+        <v>209</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>348</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G24" s="4">
+        <v>14</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>303</v>
+      </c>
+      <c r="B25">
+        <v>210</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>348</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>307</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>303</v>
+      </c>
+      <c r="B26">
+        <v>211</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>348</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>307</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>303</v>
+      </c>
+      <c r="B27">
+        <v>212</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>348</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>307</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>303</v>
+      </c>
+      <c r="B28">
+        <v>213</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>348</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>307</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29">
+        <v>100</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="J30" t="b">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="4">
+        <v>2</v>
+      </c>
+      <c r="J31" t="b">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32">
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="2">
+        <v>20052</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>105</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="J33" t="b">
+        <v>0</v>
+      </c>
+      <c r="K33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="J34" t="b">
+        <v>0</v>
+      </c>
+      <c r="K34" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>107</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="4">
+        <v>2</v>
+      </c>
+      <c r="J35" t="b">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>39</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="J36" t="b">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>39</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1</v>
+      </c>
+      <c r="J37" t="b">
+        <v>0</v>
+      </c>
+      <c r="K37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38">
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1</v>
+      </c>
+      <c r="J38" t="b">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G39" s="4">
+        <v>1</v>
+      </c>
+      <c r="J39" t="b">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="4">
+        <v>1</v>
+      </c>
+      <c r="J40" t="b">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>58</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41">
+        <v>116</v>
+      </c>
+      <c r="C41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G41" s="4">
+        <v>1</v>
+      </c>
+      <c r="J41" t="b">
+        <v>0</v>
+      </c>
+      <c r="K41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42">
+        <v>117</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G42" s="4">
+        <v>3</v>
+      </c>
+      <c r="J42" t="b">
+        <v>0</v>
+      </c>
+      <c r="K42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43">
+        <v>118</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="4">
+        <v>1</v>
+      </c>
+      <c r="J43" t="b">
+        <v>0</v>
+      </c>
+      <c r="K43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44">
+        <v>119</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="4">
+        <v>1</v>
+      </c>
+      <c r="J44" t="b">
+        <v>0</v>
+      </c>
+      <c r="K44" t="s">
+        <v>58</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45">
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D45" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="4">
+        <v>1</v>
+      </c>
+      <c r="J45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K45" t="s">
+        <v>71</v>
+      </c>
+      <c r="L45" s="2">
+        <v>8053300143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46">
+        <v>121</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G46" s="4">
+        <v>1</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
+      </c>
+      <c r="K46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47">
+        <v>123</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" s="4">
+        <v>1</v>
+      </c>
+      <c r="J47" t="b">
+        <v>0</v>
+      </c>
+      <c r="K47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48">
+        <v>125</v>
+      </c>
+      <c r="C48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1</v>
+      </c>
+      <c r="J48" t="b">
+        <v>0</v>
+      </c>
+      <c r="K48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49">
+        <v>127</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" s="4">
+        <v>1</v>
+      </c>
+      <c r="J49" t="b">
+        <v>0</v>
+      </c>
+      <c r="K49" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50">
+        <v>128</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G50" s="4">
+        <v>1</v>
+      </c>
+      <c r="J50" t="b">
+        <v>0</v>
+      </c>
+      <c r="K50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51">
+        <v>129</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G51" s="4">
+        <v>1</v>
+      </c>
+      <c r="J51" t="b">
+        <v>0</v>
+      </c>
+      <c r="K51" t="s">
+        <v>92</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52">
+        <v>130</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>37</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G52" s="4">
+        <v>1</v>
+      </c>
+      <c r="J52" t="b">
+        <v>0</v>
+      </c>
+      <c r="K52" t="s">
+        <v>96</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53">
+        <v>131</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G53" s="4">
+        <v>1</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
+      </c>
+      <c r="K53" t="s">
+        <v>96</v>
+      </c>
+      <c r="L53" s="2">
+        <v>930389</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54">
+        <v>132</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" s="4">
+        <v>1</v>
+      </c>
+      <c r="J54" t="b">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>101</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55">
+        <v>133</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G55" s="4">
+        <v>1</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
+      </c>
+      <c r="K55" t="s">
+        <v>105</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56">
+        <v>134</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>37</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G56" s="4">
+        <v>1</v>
+      </c>
+      <c r="J56" t="b">
+        <v>0</v>
+      </c>
+      <c r="K56" t="s">
+        <v>109</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57">
+        <v>136</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G57" s="4">
+        <v>1</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
+      </c>
+      <c r="K57" t="s">
+        <v>113</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58">
+        <v>140</v>
+      </c>
+      <c r="C58" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" s="4">
+        <v>1</v>
+      </c>
+      <c r="J58" t="b">
+        <v>0</v>
+      </c>
+      <c r="K58" t="s">
+        <v>116</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59">
+        <v>141</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G59" s="4">
+        <v>3</v>
+      </c>
+      <c r="J59" t="b">
+        <v>0</v>
+      </c>
+      <c r="K59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60">
+        <v>142</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" s="4">
+        <v>1</v>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
+      </c>
+      <c r="K60" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61">
+        <v>143</v>
+      </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G61" s="4">
+        <v>2</v>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
+      </c>
+      <c r="K61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62">
+        <v>149</v>
+      </c>
+      <c r="C62" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62" t="s">
+        <v>129</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1</v>
+      </c>
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63">
+        <v>150</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G63" s="4">
+        <v>1</v>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
+      </c>
+      <c r="K63" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B64">
+        <v>151</v>
+      </c>
+      <c r="C64" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64" t="s">
+        <v>135</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G64" s="4">
+        <v>3</v>
+      </c>
+      <c r="J64" t="b">
+        <v>0</v>
+      </c>
+      <c r="K64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65">
+        <v>153</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F65" s="5"/>
+      <c r="G65" s="4">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>300</v>
+      </c>
+      <c r="J65" t="b">
+        <v>0</v>
+      </c>
+      <c r="K65" t="s">
+        <v>139</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66">
+        <v>155</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G66" s="4">
+        <v>1</v>
+      </c>
+      <c r="J66" t="b">
+        <v>0</v>
+      </c>
+      <c r="K66" t="s">
+        <v>143</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67">
+        <v>156</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G67" s="4">
+        <v>1</v>
+      </c>
+      <c r="J67" t="b">
+        <v>0</v>
+      </c>
+      <c r="K67" t="s">
+        <v>143</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68">
+        <v>157</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68" s="4">
+        <v>3</v>
+      </c>
+      <c r="J68" t="b">
+        <v>0</v>
+      </c>
+      <c r="K68" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69">
+        <v>158</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" s="4">
+        <v>1</v>
+      </c>
+      <c r="J69" t="b">
+        <v>0</v>
+      </c>
+      <c r="K69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70">
+        <v>160</v>
+      </c>
+      <c r="C70" t="s">
+        <v>79</v>
+      </c>
+      <c r="D70" t="s">
+        <v>150</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G70" s="4">
+        <v>7</v>
+      </c>
+      <c r="J70" t="b">
+        <v>0</v>
+      </c>
+      <c r="K70" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71">
+        <v>161</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G71" s="4">
+        <v>1</v>
+      </c>
+      <c r="J71" t="b">
+        <v>0</v>
+      </c>
+      <c r="K71" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72">
+        <v>162</v>
+      </c>
+      <c r="C72" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G72" s="4">
+        <v>2</v>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
+      </c>
+      <c r="K72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73">
+        <v>163</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>27</v>
+      </c>
+      <c r="G73" s="4">
+        <v>1</v>
+      </c>
+      <c r="J73" t="b">
+        <v>0</v>
+      </c>
+      <c r="K73" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74">
+        <v>164</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G74" s="4">
+        <v>1</v>
+      </c>
+      <c r="J74" t="b">
+        <v>0</v>
+      </c>
+      <c r="K74" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75">
+        <v>165</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G75" s="4">
+        <v>1</v>
+      </c>
+      <c r="J75" t="b">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76">
+        <v>166</v>
+      </c>
+      <c r="C76" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G76" s="4">
+        <v>1</v>
+      </c>
+      <c r="J76" t="b">
+        <v>0</v>
+      </c>
+      <c r="K76" t="s">
+        <v>92</v>
+      </c>
+      <c r="L76" s="2">
+        <v>803181001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77">
+        <v>167</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G77" s="4">
+        <v>2</v>
+      </c>
+      <c r="J77" t="b">
+        <v>0</v>
+      </c>
+      <c r="K77" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>171</v>
+      </c>
+      <c r="B78">
+        <v>168</v>
+      </c>
+      <c r="C78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G78" s="4">
+        <v>3</v>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>173</v>
+      </c>
+      <c r="B79">
+        <v>169</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s">
+        <v>174</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G79" s="4">
+        <v>2</v>
+      </c>
+      <c r="J79" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>177</v>
+      </c>
+      <c r="B80">
+        <v>170</v>
+      </c>
+      <c r="C80" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80" t="s">
+        <v>37</v>
+      </c>
+      <c r="G80" s="4">
+        <v>1</v>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" t="s">
+        <v>178</v>
+      </c>
+      <c r="L80" s="2">
+        <v>10368</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>179</v>
+      </c>
+      <c r="B81">
+        <v>173</v>
+      </c>
+      <c r="C81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G81" s="4">
+        <v>1</v>
+      </c>
+      <c r="J81" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>181</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>183</v>
+      </c>
+      <c r="B82">
+        <v>174</v>
+      </c>
+      <c r="C82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G82" s="4">
+        <v>2</v>
+      </c>
+      <c r="J82" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>186</v>
+      </c>
+      <c r="B83">
+        <v>175</v>
+      </c>
+      <c r="C83" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" t="s">
+        <v>37</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G83" s="4">
+        <v>3</v>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>188</v>
+      </c>
+      <c r="B84">
+        <v>176</v>
+      </c>
+      <c r="C84" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" t="s">
+        <v>37</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G84" s="4">
+        <v>1</v>
+      </c>
+      <c r="J84" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" t="s">
+        <v>190</v>
+      </c>
+      <c r="L84" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>192</v>
+      </c>
+      <c r="B85">
+        <v>177</v>
+      </c>
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="G85" s="4">
+        <v>3</v>
+      </c>
+      <c r="J85" t="b">
+        <v>0</v>
+      </c>
+      <c r="K85" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>195</v>
+      </c>
+      <c r="B86">
+        <v>178</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>80</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G86" s="4">
+        <v>1</v>
+      </c>
+      <c r="J86" t="b">
+        <v>0</v>
+      </c>
+      <c r="K86" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>198</v>
+      </c>
+      <c r="B87">
+        <v>179</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
+        <v>80</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G87" s="4">
+        <v>5</v>
+      </c>
+      <c r="J87" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>200</v>
+      </c>
+      <c r="B88">
+        <v>180</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>150</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G88" s="4">
+        <v>2</v>
+      </c>
+      <c r="J88" t="b">
+        <v>0</v>
+      </c>
+      <c r="K88" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>203</v>
+      </c>
+      <c r="B89">
+        <v>181</v>
+      </c>
+      <c r="C89" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" t="s">
+        <v>37</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G89" s="4">
+        <v>1</v>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
+      </c>
+      <c r="K89" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>205</v>
+      </c>
+      <c r="B90">
+        <v>182</v>
+      </c>
+      <c r="C90" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" t="s">
+        <v>37</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G90" s="4">
+        <v>1</v>
+      </c>
+      <c r="J90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>207</v>
+      </c>
+      <c r="B91">
+        <v>183</v>
+      </c>
+      <c r="C91" t="s">
+        <v>208</v>
+      </c>
+      <c r="D91" t="s">
+        <v>27</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G91" s="4">
+        <v>1</v>
+      </c>
+      <c r="J91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>210</v>
+      </c>
+      <c r="B92">
+        <v>184</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="4">
+        <v>3</v>
+      </c>
+      <c r="J92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>211</v>
+      </c>
+      <c r="B93">
+        <v>185</v>
+      </c>
+      <c r="C93" t="s">
+        <v>79</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G93" s="4">
+        <v>1</v>
+      </c>
+      <c r="J93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>213</v>
+      </c>
+      <c r="B94">
+        <v>186</v>
+      </c>
+      <c r="C94" t="s">
+        <v>79</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G94" s="4">
+        <v>1</v>
+      </c>
+      <c r="J94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>215</v>
+      </c>
+      <c r="B95">
+        <v>187</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G95" s="4">
+        <v>1</v>
+      </c>
+      <c r="J95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>216</v>
+      </c>
+      <c r="B96">
+        <v>188</v>
+      </c>
+      <c r="C96" t="s">
+        <v>79</v>
+      </c>
+      <c r="D96" t="s">
+        <v>37</v>
+      </c>
+      <c r="J96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>217</v>
+      </c>
+      <c r="B97">
+        <v>189</v>
+      </c>
+      <c r="C97" t="s">
+        <v>79</v>
+      </c>
+      <c r="D97" t="s">
+        <v>27</v>
+      </c>
+      <c r="G97" s="4">
+        <v>1</v>
+      </c>
+      <c r="J97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>218</v>
+      </c>
+      <c r="B98">
+        <v>190</v>
+      </c>
+      <c r="C98" t="s">
+        <v>79</v>
+      </c>
+      <c r="D98" t="s">
+        <v>27</v>
+      </c>
+      <c r="G98" s="4">
+        <v>1</v>
+      </c>
+      <c r="J98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>219</v>
+      </c>
+      <c r="B99">
+        <v>191</v>
+      </c>
+      <c r="C99" t="s">
+        <v>79</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="4">
+        <v>4</v>
+      </c>
+      <c r="J99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>220</v>
+      </c>
+      <c r="B100">
+        <v>192</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="4">
+        <v>1</v>
+      </c>
+      <c r="J100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>221</v>
+      </c>
+      <c r="B101">
+        <v>193</v>
+      </c>
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G101" s="4">
+        <v>1</v>
+      </c>
+      <c r="J101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102">
+        <v>194</v>
+      </c>
+      <c r="C102" t="s">
+        <v>18</v>
+      </c>
+      <c r="D102" t="s">
+        <v>37</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G102" s="4">
+        <v>1</v>
+      </c>
+      <c r="J102" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102" s="2">
+        <v>150901006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>224</v>
+      </c>
+      <c r="B103">
+        <v>195</v>
+      </c>
+      <c r="C103" t="s">
+        <v>69</v>
+      </c>
+      <c r="D103" t="s">
+        <v>225</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="G103" s="4">
+        <v>1</v>
+      </c>
+      <c r="J103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>227</v>
+      </c>
+      <c r="B104">
+        <v>196</v>
+      </c>
+      <c r="C104" t="s">
+        <v>79</v>
+      </c>
+      <c r="D104" t="s">
+        <v>27</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G104" s="4">
+        <v>8</v>
+      </c>
+      <c r="J104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>229</v>
+      </c>
+      <c r="B105">
+        <v>197</v>
+      </c>
+      <c r="C105" t="s">
+        <v>79</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="G105" s="4">
+        <v>4</v>
+      </c>
+      <c r="J105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>231</v>
+      </c>
+      <c r="B106">
+        <v>198</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G106" s="4">
+        <v>2</v>
+      </c>
+      <c r="J106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>232</v>
+      </c>
+      <c r="B107">
+        <v>199</v>
+      </c>
+      <c r="C107" t="s">
+        <v>79</v>
+      </c>
+      <c r="D107" t="s">
+        <v>80</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="G107" s="4">
+        <v>1</v>
+      </c>
+      <c r="J107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>234</v>
+      </c>
+      <c r="B108">
+        <v>200</v>
+      </c>
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" t="s">
+        <v>27</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G108" s="4">
+        <v>1</v>
+      </c>
+      <c r="J108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>236</v>
+      </c>
+      <c r="B109">
+        <v>201</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" t="s">
+        <v>237</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="G109" s="4">
+        <v>3</v>
+      </c>
+      <c r="J109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>239</v>
+      </c>
+      <c r="B110">
+        <v>202</v>
+      </c>
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" t="s">
+        <v>240</v>
+      </c>
+      <c r="G110" s="4">
+        <v>1</v>
+      </c>
+      <c r="J110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>241</v>
+      </c>
+      <c r="B111">
+        <v>203</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" t="s">
+        <v>242</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G111" s="4">
+        <v>1</v>
+      </c>
+      <c r="J111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>244</v>
+      </c>
+      <c r="B112">
+        <v>204</v>
+      </c>
+      <c r="C112" t="s">
+        <v>208</v>
+      </c>
+      <c r="D112" t="s">
+        <v>245</v>
+      </c>
+      <c r="G112" s="4">
+        <v>2</v>
+      </c>
+      <c r="J112" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" s="12"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>246</v>
+      </c>
+      <c r="B113">
+        <v>205</v>
+      </c>
+      <c r="C113" t="s">
+        <v>79</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G113" s="4">
+        <v>1</v>
+      </c>
+      <c r="J113" t="b">
+        <v>0</v>
+      </c>
+      <c r="L113" s="10"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>248</v>
+      </c>
+      <c r="B114">
+        <v>206</v>
+      </c>
+      <c r="C114" t="s">
+        <v>79</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="G114" s="4">
+        <v>1</v>
+      </c>
+      <c r="J114" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114" s="10"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>250</v>
+      </c>
+      <c r="B115">
+        <v>207</v>
+      </c>
+      <c r="C115" t="s">
+        <v>79</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="G115" s="4">
+        <v>1</v>
+      </c>
+      <c r="J115" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" s="11"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L116">
+    <sortCondition descending="1" ref="J1:J116"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E22E8EF-7F80-476C-B800-5753E63CDB4E}">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6" t="s">
+        <v>317</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>325</v>
+      </c>
+      <c r="B11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>325</v>
+      </c>
+      <c r="B12" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C13">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" t="s">
+        <v>319</v>
+      </c>
+      <c r="C14">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C15">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>328</v>
+      </c>
+      <c r="B16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>330</v>
+      </c>
+      <c r="B17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>330</v>
+      </c>
+      <c r="B18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C18">
+        <v>39</v>
+      </c>
+      <c r="E18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19">
+        <v>27</v>
+      </c>
+      <c r="E19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>330</v>
+      </c>
+      <c r="B20" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>332</v>
+      </c>
+      <c r="B21" t="s">
+        <v>317</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>332</v>
+      </c>
+      <c r="B22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>333</v>
+      </c>
+      <c r="B23" t="s">
+        <v>317</v>
+      </c>
+      <c r="C23">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B24" t="s">
+        <v>319</v>
+      </c>
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>333</v>
+      </c>
+      <c r="B25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C25">
+        <v>43</v>
+      </c>
+      <c r="E25" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>333</v>
+      </c>
+      <c r="B26" t="s">
+        <v>327</v>
+      </c>
+      <c r="C26">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>333</v>
+      </c>
+      <c r="B27" t="s">
+        <v>320</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>336</v>
+      </c>
+      <c r="B28" t="s">
+        <v>317</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>337</v>
+      </c>
+      <c r="B29" t="s">
+        <v>317</v>
+      </c>
+      <c r="C29">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>337</v>
+      </c>
+      <c r="B30" t="s">
+        <v>319</v>
+      </c>
+      <c r="C30">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>337</v>
+      </c>
+      <c r="B31" t="s">
+        <v>326</v>
+      </c>
+      <c r="C31">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>337</v>
+      </c>
+      <c r="B32" t="s">
+        <v>327</v>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>337</v>
+      </c>
+      <c r="B33" t="s">
+        <v>320</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>338</v>
+      </c>
+      <c r="B34" t="s">
+        <v>317</v>
+      </c>
+      <c r="C34">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>338</v>
+      </c>
+      <c r="B35" t="s">
+        <v>319</v>
+      </c>
+      <c r="C35">
+        <v>53</v>
+      </c>
+      <c r="E35" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>338</v>
+      </c>
+      <c r="B36" t="s">
+        <v>326</v>
+      </c>
+      <c r="C36">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>338</v>
+      </c>
+      <c r="B37" t="s">
+        <v>320</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="E37" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>340</v>
+      </c>
+      <c r="B38" t="s">
+        <v>322</v>
+      </c>
+      <c r="C38">
+        <v>81</v>
+      </c>
+      <c r="E38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>341</v>
+      </c>
+      <c r="B39" t="s">
+        <v>322</v>
+      </c>
+      <c r="C39">
+        <v>69</v>
+      </c>
+      <c r="E39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>342</v>
+      </c>
+      <c r="B40" t="s">
+        <v>317</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>342</v>
+      </c>
+      <c r="B41" t="s">
+        <v>319</v>
+      </c>
+      <c r="C41">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>342</v>
+      </c>
+      <c r="B42" t="s">
+        <v>320</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>344</v>
+      </c>
+      <c r="B43" t="s">
+        <v>317</v>
+      </c>
+      <c r="C43">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>35</v>
-      </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E43" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>344</v>
+      </c>
+      <c r="B44" t="s">
+        <v>319</v>
+      </c>
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>344</v>
+      </c>
+      <c r="B45" t="s">
+        <v>326</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>345</v>
+      </c>
+      <c r="B46" t="s">
+        <v>317</v>
+      </c>
+      <c r="C46">
+        <v>33</v>
+      </c>
+      <c r="E46" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>345</v>
+      </c>
+      <c r="B47" t="s">
+        <v>319</v>
+      </c>
+      <c r="C47">
+        <v>64</v>
+      </c>
+      <c r="E47" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>345</v>
+      </c>
+      <c r="B48" t="s">
+        <v>326</v>
+      </c>
+      <c r="C48">
+        <v>63</v>
+      </c>
+      <c r="E48" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>345</v>
+      </c>
+      <c r="B49" t="s">
+        <v>327</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>345</v>
+      </c>
+      <c r="B50" t="s">
+        <v>320</v>
+      </c>
+      <c r="C50">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>40</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>50</v>
-      </c>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H6" s="7"/>
+      <c r="E50" t="s">
+        <v>346</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{16C835B8-A554-4896-9F40-CB916FDCA531}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{C61E71EB-7067-4710-81AD-08EAFCC5848E}"/>
-  </hyperlinks>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E75">
+    <sortCondition ref="A2:A75"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006016FC4ABA53EB40AF2E1AE66A149C36" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80797ddc1a62b85dfa38516a44f81d85">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2123744-6970-4405-801a-d4363784b56c" xmlns:ns3="474669f3-0da8-4d17-a2d7-f11342493c3b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5754c917f4fdffed6369b4e462c84739" ns2:_="" ns3:_="">
+    <xsd:import namespace="f2123744-6970-4405-801a-d4363784b56c"/>
+    <xsd:import namespace="474669f3-0da8-4d17-a2d7-f11342493c3b"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f2123744-6970-4405-801a-d4363784b56c" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="474669f3-0da8-4d17-a2d7-f11342493c3b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="11" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="13" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="16" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="17" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="18" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="19" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="f2123744-6970-4405-801a-d4363784b56c">
+      <UserInfo>
+        <DisplayName>DiBella, Max Thomas</DisplayName>
+        <AccountId>200</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B3CB0993-B827-4FC6-BF60-33A7834A7B89}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0387C647-A024-4B0A-AE17-1402FC8D01DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f2123744-6970-4405-801a-d4363784b56c"/>
+    <ds:schemaRef ds:uri="474669f3-0da8-4d17-a2d7-f11342493c3b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1251E50C-7272-46E6-B3F7-11B494FDE9F7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f2123744-6970-4405-801a-d4363784b56c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>